--- a/Fase_II/Use Cases/Terminar sessão.xlsx
+++ b/Fase_II/Use Cases/Terminar sessão.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nuno\Desktop\Li4---Sweetron\Fase_II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nuno\Desktop\Li4---Sweetron\Fase_II\Use Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{433E5F88-92B2-4A23-A9D2-7E617DAD6680}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D46026-18B5-479E-93C7-DF89DF5F9C54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="84" yWindow="456" windowWidth="25440" windowHeight="14724" xr2:uid="{C7A0A64F-69DF-CB43-BB66-CA0002FD1B4D}"/>
   </bookViews>
@@ -265,6 +265,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -277,27 +290,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,77 +632,77 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="36" x14ac:dyDescent="0.35">
-      <c r="B7" s="11"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B8" s="11"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B9" s="11"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B10" s="11"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="3"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="12"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
     </row>
